--- a/result/record.xlsx
+++ b/result/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Garage\Code\LC-VLSICAD\project\FPGA_r_op\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14609C2F-6E7C-4EB8-AC76-13C3ACDC3750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE87E4C2-B611-4A12-8D31-986714A547BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6831" yWindow="6036" windowWidth="22119" windowHeight="11613" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6831" yWindow="4274" windowWidth="22119" windowHeight="11612" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,7 +354,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -426,10 +426,22 @@
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/result/record.xlsx
+++ b/result/record.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Garage\Code\LC-VLSICAD\project\FPGA_r_op\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE87E4C2-B611-4A12-8D31-986714A547BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA0CBDE-DBAC-4DFE-B823-561BA703D483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6831" yWindow="4274" windowWidth="22119" windowHeight="11612" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="29699" windowHeight="16094" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>case</t>
   </si>
@@ -35,12 +44,102 @@
   <si>
     <t>instance_iter</t>
   </si>
+  <si>
+    <t>base noncrit</t>
+  </si>
+  <si>
+    <t>base crit</t>
+  </si>
+  <si>
+    <t>opt noncrit</t>
+  </si>
+  <si>
+    <t>opt crit</t>
+  </si>
+  <si>
+    <t>movable instaces</t>
+  </si>
+  <si>
+    <t>sec crit</t>
+  </si>
+  <si>
+    <t>sec noncrit</t>
+  </si>
+  <si>
+    <t>case1</t>
+  </si>
+  <si>
+    <t>case2</t>
+  </si>
+  <si>
+    <t>case3</t>
+  </si>
+  <si>
+    <t>case4</t>
+  </si>
+  <si>
+    <t>case5</t>
+  </si>
+  <si>
+    <t>case6</t>
+  </si>
+  <si>
+    <t>case7</t>
+  </si>
+  <si>
+    <t>case8</t>
+  </si>
+  <si>
+    <t>case10</t>
+  </si>
+  <si>
+    <t>Normalized Baseline</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Non-Critical WL% (Ours)</t>
+  </si>
+  <si>
+    <t>Critical WL% (Ours)</t>
+  </si>
+  <si>
+    <t>Non-Critical WL% (2nd prize)</t>
+  </si>
+  <si>
+    <t>Critical WL% (2nd prize)</t>
+  </si>
+  <si>
+    <t>All O</t>
+  </si>
+  <si>
+    <t>All 2</t>
+  </si>
+  <si>
+    <t>All WL% (Ours)</t>
+  </si>
+  <si>
+    <t>All WL% (2nd prize)</t>
+  </si>
+  <si>
+    <t>case9</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>No Limit Opt</t>
+  </si>
+  <si>
+    <t>Limit Opt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,16 +147,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -65,15 +189,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="注释" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -86,6 +234,4326 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1">
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:rPr>
+              <a:t>Wirelength</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0">
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:rPr>
+              <a:t> Result on Public Cases</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Normalized Baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>case1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>case2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>case3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>case4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>case5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>case6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>case7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>case8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>case9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>case10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7EA1-473D-B0C6-7C0C93FBA189}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Non-Critical WL% (Ours)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>case1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>case2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>case3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>case4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>case5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>case6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>case7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>case8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>case9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>case10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.97088983900060122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93690728923980948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94486629163261471</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97237263036523747</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94346639381561948</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96592245400899557</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93596773304955738</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98270159705729443</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9133718703914423</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85032873795747455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7EA1-473D-B0C6-7C0C93FBA189}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Non-Critical WL% (2nd prize)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>case1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>case2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>case3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>case4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>case5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>case6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>case7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>case8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>case9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>case10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.96751620014697037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94389055495063656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94654839076538155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9452263155845444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93694149661352821</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97062854562689227</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97140396609766488</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98728879407488412</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93618746665490971</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9119927461909545</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7EA1-473D-B0C6-7C0C93FBA189}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Critical WL% (Ours)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>case1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>case2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>case3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>case4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>case5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>case6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>case7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>case8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>case9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>case10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.7549997183257281</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70112664766654786</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91442465801350448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84502767436497217</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80463213534771438</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80468254119077931</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75823523605518828</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84298991744379204</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6831688000814885</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61050975568982402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7EA1-473D-B0C6-7C0C93FBA189}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Critical WL% (2nd prize)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>case1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>case2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>case3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>case4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>case5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>case6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>case7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>case8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>case9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>case10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.63810489549884508</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62270662629141427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85728113447387144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70556452409975945</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75102455026867065</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67253948043556755</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89121681645649942</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7795299812405434</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68335766671193809</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57872017768012796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7EA1-473D-B0C6-7C0C93FBA189}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="580553808"/>
+        <c:axId val="580550896"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="580553808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580550896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="580550896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580553808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+              <a:t>Total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+              <a:t> Wirelength Result on Public Cases</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Normalized Baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>case1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>case2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>case3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>case4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>case5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>case6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>case7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>case8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>case9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>case10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-78DE-4503-9567-ABB3C32D1BD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>All WL% (Ours)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>case1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>case2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>case3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>case4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>case5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>case6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>case7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>case8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>case9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>case10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$2:$X$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.92152215079804711</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88631423042927782</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9392387161311464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94261066746487698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90562269109859428</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91985400754395708</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87176656626157345</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94349291466608376</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86980414836770226</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79552871261193903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-78DE-4503-9567-ABB3C32D1BD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>All WL% (2nd prize)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>case1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>case2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>case3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>case4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>case5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>case6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>case7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>case8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>case9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>case10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$2:$Y$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.89218957321550496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8749719309142161</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93004604956796189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88921463227304187</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88626390647709652</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88546042626018129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94243847776308876</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92898336586063912</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8883374600133741</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83583803554764879</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-78DE-4503-9567-ABB3C32D1BD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="575159552"/>
+        <c:axId val="575159136"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="575159552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="575159136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="575159136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="575159552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+              <a:t>Top 5% avg.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+              <a:t> p</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+              <a:t>indensity Result on Public Cases</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>case1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>case2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>case3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>case4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>case5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>case6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>case7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>case8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>case9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>case10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.26129999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27679999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2903</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3322</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7549-464A-B391-A50D497BF8C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Limit Opt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>case1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>case2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>case3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>case4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>case5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>case6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>case7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>case8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>case9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>case10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.29060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2964</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29160000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28960000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7549-464A-B391-A50D497BF8C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Limit Opt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>case1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>case2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>case3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>case4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>case5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>case6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>case7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>case8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>case9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>case10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.25669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26479999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25590000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25679999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28810000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3251</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7549-464A-B391-A50D497BF8C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="581015408"/>
+        <c:axId val="581012496"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="581015408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="581012496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="581012496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.36000000000000004"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="581015408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171716</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>297180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>120683</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE87418E-F67F-44AB-9BD7-84798AC77C30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>173060</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>837362</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>43376</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BBE6FFE-1FE0-4F6D-A34D-DA50B05A665F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>831334</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>69353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>122810</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>42042</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDA5B956-E298-4F8D-9629-6FB8F40AC4EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,100 +4819,927 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="16.69921875" customWidth="1"/>
+    <col min="4" max="4" width="18.69921875" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="11" max="11" width="14.59765625" customWidth="1"/>
+    <col min="12" max="12" width="15.19921875" customWidth="1"/>
+    <col min="13" max="13" width="17.69921875" customWidth="1"/>
+    <col min="18" max="18" width="25.19921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:25" ht="25.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:25" ht="25.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4">
+        <v>50</v>
+      </c>
+      <c r="C2" s="4">
+        <v>300</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6955</v>
+      </c>
+      <c r="E2" s="1">
+        <v>59876</v>
+      </c>
+      <c r="F2" s="1">
+        <v>17751</v>
+      </c>
+      <c r="G2" s="1">
+        <v>58133</v>
+      </c>
+      <c r="H2" s="1">
+        <v>13402</v>
+      </c>
+      <c r="I2" s="6">
+        <f>G2/E2</f>
+        <v>0.97088983900060122</v>
+      </c>
+      <c r="J2" s="6">
+        <f>H2/F2</f>
+        <v>0.7549997183257281</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.26129999999999998</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.29060000000000002</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0.25669999999999998</v>
+      </c>
+      <c r="N2" s="1">
+        <v>57931</v>
+      </c>
+      <c r="O2" s="1">
+        <v>11327</v>
+      </c>
+      <c r="P2" s="3">
+        <f>N2/E2</f>
+        <v>0.96751620014697037</v>
+      </c>
+      <c r="Q2" s="3">
+        <f>O2/F2</f>
+        <v>0.63810489549884508</v>
+      </c>
+      <c r="R2" s="1">
         <v>1</v>
       </c>
+      <c r="T2" s="1">
+        <v>9327</v>
+      </c>
+      <c r="U2" s="1">
+        <f>E2+F2</f>
+        <v>77627</v>
+      </c>
+      <c r="V2" s="1">
+        <f>G2+H2</f>
+        <v>71535</v>
+      </c>
+      <c r="W2" s="1">
+        <f>N2+O2</f>
+        <v>69258</v>
+      </c>
+      <c r="X2" s="6">
+        <f>V2/U2</f>
+        <v>0.92152215079804711</v>
+      </c>
+      <c r="Y2" s="3">
+        <f>W2/U2</f>
+        <v>0.89218957321550496</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:25" ht="25.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4">
+        <v>200</v>
+      </c>
+      <c r="D3" s="1">
+        <v>27433</v>
+      </c>
+      <c r="E3" s="1">
+        <v>164393</v>
+      </c>
+      <c r="F3" s="1">
+        <v>44912</v>
+      </c>
+      <c r="G3" s="1">
+        <v>154021</v>
+      </c>
+      <c r="H3" s="1">
+        <v>31489</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" ref="I3:I11" si="0">G3/E3</f>
+        <v>0.93690728923980948</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" ref="J3:J11" si="1">H3/F3</f>
+        <v>0.70112664766654786</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.25840000000000002</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.29449999999999998</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0.25840000000000002</v>
+      </c>
+      <c r="N3" s="1">
+        <v>155169</v>
+      </c>
+      <c r="O3" s="1">
+        <v>27967</v>
+      </c>
+      <c r="P3" s="3">
+        <f>N3/E3</f>
+        <v>0.94389055495063656</v>
+      </c>
+      <c r="Q3" s="3">
+        <f>O3/F3</f>
+        <v>0.62270662629141427</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>24967</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" ref="U3:U11" si="2">E3+F3</f>
+        <v>209305</v>
+      </c>
+      <c r="V3" s="1">
+        <f t="shared" ref="V3:V11" si="3">G3+H3</f>
+        <v>185510</v>
+      </c>
+      <c r="W3" s="1">
+        <f t="shared" ref="W3:W11" si="4">N3+O3</f>
+        <v>183136</v>
+      </c>
+      <c r="X3" s="6">
+        <f t="shared" ref="X3:X11" si="5">V3/U3</f>
+        <v>0.88631423042927782</v>
+      </c>
+      <c r="Y3" s="3">
+        <f t="shared" ref="Y3:Y11" si="6">W3/U3</f>
+        <v>0.8749719309142161</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+    <row r="4" spans="1:25" ht="25.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4">
+        <v>150</v>
+      </c>
+      <c r="D4" s="1">
+        <v>34799</v>
+      </c>
+      <c r="E4" s="1">
+        <v>378099</v>
+      </c>
+      <c r="F4" s="1">
+        <v>85749</v>
+      </c>
+      <c r="G4" s="1">
+        <v>357253</v>
+      </c>
+      <c r="H4" s="1">
+        <v>78411</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.94486629163261471</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" si="1"/>
+        <v>0.91442465801350448</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.26550000000000001</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.29170000000000001</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0.26479999999999998</v>
+      </c>
+      <c r="N4" s="1">
+        <v>357889</v>
+      </c>
+      <c r="O4" s="1">
+        <v>73511</v>
+      </c>
+      <c r="P4" s="3">
+        <f>N4/E4</f>
+        <v>0.94654839076538155</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>O4/F4</f>
+        <v>0.85728113447387144</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>71511</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="2"/>
+        <v>463848</v>
+      </c>
+      <c r="V4" s="1">
+        <f t="shared" si="3"/>
+        <v>435664</v>
+      </c>
+      <c r="W4" s="1">
+        <f t="shared" si="4"/>
+        <v>431400</v>
+      </c>
+      <c r="X4" s="6">
+        <f t="shared" si="5"/>
+        <v>0.9392387161311464</v>
+      </c>
+      <c r="Y4" s="3">
+        <f t="shared" si="6"/>
+        <v>0.93004604956796189</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:25" ht="25.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4">
         <v>15</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1">
+        <v>90631</v>
+      </c>
+      <c r="E5" s="1">
+        <v>796167</v>
+      </c>
+      <c r="F5" s="1">
+        <v>242824</v>
+      </c>
+      <c r="G5" s="1">
+        <v>774171</v>
+      </c>
+      <c r="H5" s="1">
+        <v>205193</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.97237263036523747</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="1"/>
+        <v>0.84502767436497217</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.26029999999999998</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.2964</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0.25590000000000002</v>
+      </c>
+      <c r="N5" s="1">
+        <v>752558</v>
+      </c>
+      <c r="O5" s="1">
+        <v>171328</v>
+      </c>
+      <c r="P5" s="3">
+        <f>N5/E5</f>
+        <v>0.9452263155845444</v>
+      </c>
+      <c r="Q5" s="3">
+        <f>O5/F5</f>
+        <v>0.70556452409975945</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>170328</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="2"/>
+        <v>1038991</v>
+      </c>
+      <c r="V5" s="1">
+        <f t="shared" si="3"/>
+        <v>979364</v>
+      </c>
+      <c r="W5" s="1">
+        <f t="shared" si="4"/>
+        <v>923886</v>
+      </c>
+      <c r="X5" s="6">
+        <f t="shared" si="5"/>
+        <v>0.94261066746487698</v>
+      </c>
+      <c r="Y5" s="3">
+        <f t="shared" si="6"/>
+        <v>0.88921463227304187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="25.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1">
+        <v>109710</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1096569</v>
+      </c>
+      <c r="F6" s="1">
+        <v>410912</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1034576</v>
+      </c>
+      <c r="H6" s="1">
+        <v>330633</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.94346639381561948</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="1"/>
+        <v>0.80463213534771438</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.25719999999999998</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.29160000000000003</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0.25679999999999997</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1027421</v>
+      </c>
+      <c r="O6" s="1">
+        <v>308605</v>
+      </c>
+      <c r="P6" s="3">
+        <f>N6/E6</f>
+        <v>0.93694149661352821</v>
+      </c>
+      <c r="Q6" s="3">
+        <f>O6/F6</f>
+        <v>0.75102455026867065</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>298605</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="2"/>
+        <v>1507481</v>
+      </c>
+      <c r="V6" s="1">
+        <f t="shared" si="3"/>
+        <v>1365209</v>
+      </c>
+      <c r="W6" s="1">
+        <f t="shared" si="4"/>
+        <v>1336026</v>
+      </c>
+      <c r="X6" s="6">
+        <f t="shared" si="5"/>
+        <v>0.90562269109859428</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" si="6"/>
+        <v>0.88626390647709652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="25.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4">
         <v>30</v>
       </c>
+      <c r="D7" s="1">
+        <v>175441</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1315529</v>
+      </c>
+      <c r="F7" s="1">
+        <v>526210</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1270699</v>
+      </c>
+      <c r="H7" s="1">
+        <v>423432</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.96592245400899557</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="1"/>
+        <v>0.80468254119077931</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.27679999999999999</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.30349999999999999</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0.26440000000000002</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1276890</v>
+      </c>
+      <c r="O7" s="1">
+        <v>353897</v>
+      </c>
+      <c r="P7" s="3">
+        <f>N7/E7</f>
+        <v>0.97062854562689227</v>
+      </c>
+      <c r="Q7" s="3">
+        <f>O7/F7</f>
+        <v>0.67253948043556755</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>343897</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="2"/>
+        <v>1841739</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" si="3"/>
+        <v>1694131</v>
+      </c>
+      <c r="W7" s="1">
+        <f t="shared" si="4"/>
+        <v>1630787</v>
+      </c>
+      <c r="X7" s="6">
+        <f t="shared" si="5"/>
+        <v>0.91985400754395708</v>
+      </c>
+      <c r="Y7" s="3">
+        <f t="shared" si="6"/>
+        <v>0.88546042626018129</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
+    <row r="8" spans="1:25" ht="25.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1">
+        <v>226295</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1379492</v>
+      </c>
+      <c r="F8" s="1">
+        <v>780093</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1291160</v>
+      </c>
+      <c r="H8" s="1">
+        <v>591494</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.93596773304955738</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="1"/>
+        <v>0.75823523605518828</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.28960000000000002</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1340044</v>
+      </c>
+      <c r="O8" s="1">
+        <v>695232</v>
+      </c>
+      <c r="P8" s="3">
+        <f>N8/E8</f>
+        <v>0.97140396609766488</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>O8/F8</f>
+        <v>0.89121681645649942</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1">
+        <v>695232</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="2"/>
+        <v>2159585</v>
+      </c>
+      <c r="V8" s="1">
+        <f t="shared" si="3"/>
+        <v>1882654</v>
+      </c>
+      <c r="W8" s="1">
+        <f t="shared" si="4"/>
+        <v>2035276</v>
+      </c>
+      <c r="X8" s="6">
+        <f t="shared" si="5"/>
+        <v>0.87176656626157345</v>
+      </c>
+      <c r="Y8" s="3">
+        <f t="shared" si="6"/>
+        <v>0.94243847776308876</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
+    <row r="9" spans="1:25" ht="25.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1">
+        <v>221566</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2458146</v>
+      </c>
+      <c r="F9" s="1">
+        <v>958983</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2415624</v>
+      </c>
+      <c r="H9" s="1">
+        <v>808413</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.98270159705729443</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="1"/>
+        <v>0.84298991744379204</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.2903</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0.28810000000000002</v>
+      </c>
+      <c r="N9" s="1">
+        <v>2426900</v>
+      </c>
+      <c r="O9" s="1">
+        <v>747556</v>
+      </c>
+      <c r="P9" s="3">
+        <f>N9/E9</f>
+        <v>0.98728879407488412</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>O9/F9</f>
+        <v>0.7795299812405434</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1">
+        <v>747556</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="2"/>
+        <v>3417129</v>
+      </c>
+      <c r="V9" s="1">
+        <f t="shared" si="3"/>
+        <v>3224037</v>
+      </c>
+      <c r="W9" s="1">
+        <f t="shared" si="4"/>
+        <v>3174456</v>
+      </c>
+      <c r="X9" s="6">
+        <f t="shared" si="5"/>
+        <v>0.94349291466608376</v>
+      </c>
+      <c r="Y9" s="3">
+        <f t="shared" si="6"/>
+        <v>0.92898336586063912</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
+    <row r="10" spans="1:25" ht="25.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="4">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1">
+        <v>381108</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2018663</v>
+      </c>
+      <c r="F10" s="1">
+        <v>471232</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1843790</v>
+      </c>
+      <c r="H10" s="1">
+        <v>321931</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.9133718703914423</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="1"/>
+        <v>0.6831688000814885</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.33090000000000003</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.35189999999999999</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0.32450000000000001</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1889847</v>
+      </c>
+      <c r="O10" s="1">
+        <v>322020</v>
+      </c>
+      <c r="P10" s="3">
+        <f>N10/E10</f>
+        <v>0.93618746665490971</v>
+      </c>
+      <c r="Q10" s="3">
+        <f>O10/F10</f>
+        <v>0.68335766671193809</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>322020</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" si="2"/>
+        <v>2489895</v>
+      </c>
+      <c r="V10" s="1">
+        <f t="shared" si="3"/>
+        <v>2165721</v>
+      </c>
+      <c r="W10" s="1">
+        <f t="shared" si="4"/>
+        <v>2211867</v>
+      </c>
+      <c r="X10" s="6">
+        <f t="shared" si="5"/>
+        <v>0.86980414836770226</v>
+      </c>
+      <c r="Y10" s="3">
+        <f t="shared" si="6"/>
+        <v>0.8883374600133741</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>12</v>
-      </c>
-      <c r="C9">
+    <row r="11" spans="1:25" ht="25.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>15</v>
+      <c r="C11" s="4">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1">
+        <v>402635</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2261984</v>
+      </c>
+      <c r="F11" s="1">
+        <v>669968</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1923430</v>
+      </c>
+      <c r="H11" s="1">
+        <v>409022</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.85032873795747455</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="1"/>
+        <v>0.61050975568982402</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.3322</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.3599</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0.3251</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2062913</v>
+      </c>
+      <c r="O11" s="1">
+        <v>387724</v>
+      </c>
+      <c r="P11" s="3">
+        <f>N11/E11</f>
+        <v>0.9119927461909545</v>
+      </c>
+      <c r="Q11" s="3">
+        <f>O11/F11</f>
+        <v>0.57872017768012796</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>387724</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" si="2"/>
+        <v>2931952</v>
+      </c>
+      <c r="V11" s="1">
+        <f t="shared" si="3"/>
+        <v>2332452</v>
+      </c>
+      <c r="W11" s="1">
+        <f t="shared" si="4"/>
+        <v>2450637</v>
+      </c>
+      <c r="X11" s="6">
+        <f t="shared" si="5"/>
+        <v>0.79552871261193903</v>
+      </c>
+      <c r="Y11" s="3">
+        <f t="shared" si="6"/>
+        <v>0.83583803554764879</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/result/record.xlsx
+++ b/result/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Garage\Code\LC-VLSICAD\project\FPGA_r_op\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA0CBDE-DBAC-4DFE-B823-561BA703D483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033DD586-4624-4F51-AECF-46615E62CE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="29699" windowHeight="16094" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -634,7 +634,7 @@
                   <c:v>0.96592245400899557</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93596773304955738</c:v>
+                  <c:v>0.9308223606950965</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.98270159705729443</c:v>
@@ -643,7 +643,7 @@
                   <c:v>0.9133718703914423</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.85032873795747455</c:v>
+                  <c:v>0.84283177953513377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -962,7 +962,7 @@
                   <c:v>0.80468254119077931</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.75823523605518828</c:v>
+                  <c:v>0.74252172497381719</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.84298991744379204</c:v>
@@ -971,7 +971,7 @@
                   <c:v>0.6831688000814885</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.61050975568982402</c:v>
+                  <c:v>0.59769123301411409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1788,7 +1788,7 @@
                   <c:v>0.91985400754395708</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.87176656626157345</c:v>
+                  <c:v>0.86280373312465131</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.94349291466608376</c:v>
@@ -1797,7 +1797,7 @@
                   <c:v>0.86980414836770226</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.79552871261193903</c:v>
+                  <c:v>0.78681574596037041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4821,8 +4821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4956,11 +4956,11 @@
         <v>11327</v>
       </c>
       <c r="P2" s="3">
-        <f>N2/E2</f>
+        <f t="shared" ref="P2:P11" si="0">N2/E2</f>
         <v>0.96751620014697037</v>
       </c>
       <c r="Q2" s="3">
-        <f>O2/F2</f>
+        <f t="shared" ref="Q2:Q11" si="1">O2/F2</f>
         <v>0.63810489549884508</v>
       </c>
       <c r="R2" s="1">
@@ -5016,11 +5016,11 @@
         <v>31489</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" ref="I3:I11" si="0">G3/E3</f>
+        <f t="shared" ref="I3:I11" si="2">G3/E3</f>
         <v>0.93690728923980948</v>
       </c>
       <c r="J3" s="6">
-        <f t="shared" ref="J3:J11" si="1">H3/F3</f>
+        <f t="shared" ref="J3:J11" si="3">H3/F3</f>
         <v>0.70112664766654786</v>
       </c>
       <c r="K3" s="2">
@@ -5039,11 +5039,11 @@
         <v>27967</v>
       </c>
       <c r="P3" s="3">
-        <f>N3/E3</f>
+        <f t="shared" si="0"/>
         <v>0.94389055495063656</v>
       </c>
       <c r="Q3" s="3">
-        <f>O3/F3</f>
+        <f t="shared" si="1"/>
         <v>0.62270662629141427</v>
       </c>
       <c r="R3" s="1">
@@ -5053,23 +5053,23 @@
         <v>24967</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" ref="U3:U11" si="2">E3+F3</f>
+        <f t="shared" ref="U3:U11" si="4">E3+F3</f>
         <v>209305</v>
       </c>
       <c r="V3" s="1">
-        <f t="shared" ref="V3:V11" si="3">G3+H3</f>
+        <f t="shared" ref="V3:V11" si="5">G3+H3</f>
         <v>185510</v>
       </c>
       <c r="W3" s="1">
-        <f t="shared" ref="W3:W11" si="4">N3+O3</f>
+        <f t="shared" ref="W3:W11" si="6">N3+O3</f>
         <v>183136</v>
       </c>
       <c r="X3" s="6">
-        <f t="shared" ref="X3:X11" si="5">V3/U3</f>
+        <f t="shared" ref="X3:X11" si="7">V3/U3</f>
         <v>0.88631423042927782</v>
       </c>
       <c r="Y3" s="3">
-        <f t="shared" ref="Y3:Y11" si="6">W3/U3</f>
+        <f t="shared" ref="Y3:Y11" si="8">W3/U3</f>
         <v>0.8749719309142161</v>
       </c>
     </row>
@@ -5099,11 +5099,11 @@
         <v>78411</v>
       </c>
       <c r="I4" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.94486629163261471</v>
       </c>
       <c r="J4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.91442465801350448</v>
       </c>
       <c r="K4" s="2">
@@ -5122,11 +5122,11 @@
         <v>73511</v>
       </c>
       <c r="P4" s="3">
-        <f>N4/E4</f>
+        <f t="shared" si="0"/>
         <v>0.94654839076538155</v>
       </c>
       <c r="Q4" s="3">
-        <f>O4/F4</f>
+        <f t="shared" si="1"/>
         <v>0.85728113447387144</v>
       </c>
       <c r="R4" s="1">
@@ -5136,23 +5136,23 @@
         <v>71511</v>
       </c>
       <c r="U4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>463848</v>
       </c>
       <c r="V4" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>435664</v>
       </c>
       <c r="W4" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>431400</v>
       </c>
       <c r="X4" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.9392387161311464</v>
       </c>
       <c r="Y4" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.93004604956796189</v>
       </c>
     </row>
@@ -5182,11 +5182,11 @@
         <v>205193</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.97237263036523747</v>
       </c>
       <c r="J5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.84502767436497217</v>
       </c>
       <c r="K5" s="2">
@@ -5205,11 +5205,11 @@
         <v>171328</v>
       </c>
       <c r="P5" s="3">
-        <f>N5/E5</f>
+        <f t="shared" si="0"/>
         <v>0.9452263155845444</v>
       </c>
       <c r="Q5" s="3">
-        <f>O5/F5</f>
+        <f t="shared" si="1"/>
         <v>0.70556452409975945</v>
       </c>
       <c r="R5" s="1">
@@ -5219,23 +5219,23 @@
         <v>170328</v>
       </c>
       <c r="U5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1038991</v>
       </c>
       <c r="V5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>979364</v>
       </c>
       <c r="W5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>923886</v>
       </c>
       <c r="X5" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.94261066746487698</v>
       </c>
       <c r="Y5" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.88921463227304187</v>
       </c>
     </row>
@@ -5265,11 +5265,11 @@
         <v>330633</v>
       </c>
       <c r="I6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.94346639381561948</v>
       </c>
       <c r="J6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.80463213534771438</v>
       </c>
       <c r="K6" s="2">
@@ -5288,11 +5288,11 @@
         <v>308605</v>
       </c>
       <c r="P6" s="3">
-        <f>N6/E6</f>
+        <f t="shared" si="0"/>
         <v>0.93694149661352821</v>
       </c>
       <c r="Q6" s="3">
-        <f>O6/F6</f>
+        <f t="shared" si="1"/>
         <v>0.75102455026867065</v>
       </c>
       <c r="R6" s="1">
@@ -5302,23 +5302,23 @@
         <v>298605</v>
       </c>
       <c r="U6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1507481</v>
       </c>
       <c r="V6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1365209</v>
       </c>
       <c r="W6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1336026</v>
       </c>
       <c r="X6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.90562269109859428</v>
       </c>
       <c r="Y6" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.88626390647709652</v>
       </c>
     </row>
@@ -5348,11 +5348,11 @@
         <v>423432</v>
       </c>
       <c r="I7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.96592245400899557</v>
       </c>
       <c r="J7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.80468254119077931</v>
       </c>
       <c r="K7" s="2">
@@ -5371,11 +5371,11 @@
         <v>353897</v>
       </c>
       <c r="P7" s="3">
-        <f>N7/E7</f>
+        <f t="shared" si="0"/>
         <v>0.97062854562689227</v>
       </c>
       <c r="Q7" s="3">
-        <f>O7/F7</f>
+        <f t="shared" si="1"/>
         <v>0.67253948043556755</v>
       </c>
       <c r="R7" s="1">
@@ -5385,23 +5385,23 @@
         <v>343897</v>
       </c>
       <c r="U7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1841739</v>
       </c>
       <c r="V7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1694131</v>
       </c>
       <c r="W7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1630787</v>
       </c>
       <c r="X7" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.91985400754395708</v>
       </c>
       <c r="Y7" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.88546042626018129</v>
       </c>
     </row>
@@ -5410,10 +5410,10 @@
         <v>16</v>
       </c>
       <c r="B8" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1">
         <v>226295</v>
@@ -5425,18 +5425,18 @@
         <v>780093</v>
       </c>
       <c r="G8" s="1">
-        <v>1291160</v>
+        <v>1284062</v>
       </c>
       <c r="H8" s="1">
-        <v>591494</v>
+        <v>579236</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="0"/>
-        <v>0.93596773304955738</v>
+        <f t="shared" si="2"/>
+        <v>0.9308223606950965</v>
       </c>
       <c r="J8" s="6">
-        <f t="shared" si="1"/>
-        <v>0.75823523605518828</v>
+        <f t="shared" si="3"/>
+        <v>0.74252172497381719</v>
       </c>
       <c r="K8" s="2">
         <v>0.27400000000000002</v>
@@ -5454,11 +5454,11 @@
         <v>695232</v>
       </c>
       <c r="P8" s="3">
-        <f>N8/E8</f>
+        <f t="shared" si="0"/>
         <v>0.97140396609766488</v>
       </c>
       <c r="Q8" s="3">
-        <f>O8/F8</f>
+        <f t="shared" si="1"/>
         <v>0.89121681645649942</v>
       </c>
       <c r="R8" s="1">
@@ -5468,23 +5468,23 @@
         <v>695232</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2159585</v>
       </c>
       <c r="V8" s="1">
-        <f t="shared" si="3"/>
-        <v>1882654</v>
+        <f t="shared" si="5"/>
+        <v>1863298</v>
       </c>
       <c r="W8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2035276</v>
       </c>
       <c r="X8" s="6">
-        <f t="shared" si="5"/>
-        <v>0.87176656626157345</v>
+        <f t="shared" si="7"/>
+        <v>0.86280373312465131</v>
       </c>
       <c r="Y8" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.94243847776308876</v>
       </c>
     </row>
@@ -5514,11 +5514,11 @@
         <v>808413</v>
       </c>
       <c r="I9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.98270159705729443</v>
       </c>
       <c r="J9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.84298991744379204</v>
       </c>
       <c r="K9" s="2">
@@ -5537,11 +5537,11 @@
         <v>747556</v>
       </c>
       <c r="P9" s="3">
-        <f>N9/E9</f>
+        <f t="shared" si="0"/>
         <v>0.98728879407488412</v>
       </c>
       <c r="Q9" s="3">
-        <f>O9/F9</f>
+        <f t="shared" si="1"/>
         <v>0.7795299812405434</v>
       </c>
       <c r="R9" s="1">
@@ -5551,23 +5551,23 @@
         <v>747556</v>
       </c>
       <c r="U9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3417129</v>
       </c>
       <c r="V9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3224037</v>
       </c>
       <c r="W9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3174456</v>
       </c>
       <c r="X9" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.94349291466608376</v>
       </c>
       <c r="Y9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.92898336586063912</v>
       </c>
     </row>
@@ -5597,11 +5597,11 @@
         <v>321931</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.9133718703914423</v>
       </c>
       <c r="J10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.6831688000814885</v>
       </c>
       <c r="K10" s="2">
@@ -5620,11 +5620,11 @@
         <v>322020</v>
       </c>
       <c r="P10" s="3">
-        <f>N10/E10</f>
+        <f t="shared" si="0"/>
         <v>0.93618746665490971</v>
       </c>
       <c r="Q10" s="3">
-        <f>O10/F10</f>
+        <f t="shared" si="1"/>
         <v>0.68335766671193809</v>
       </c>
       <c r="R10" s="1">
@@ -5634,23 +5634,23 @@
         <v>322020</v>
       </c>
       <c r="U10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2489895</v>
       </c>
       <c r="V10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2165721</v>
       </c>
       <c r="W10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2211867</v>
       </c>
       <c r="X10" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.86980414836770226</v>
       </c>
       <c r="Y10" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.8883374600133741</v>
       </c>
     </row>
@@ -5662,7 +5662,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="4">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1">
         <v>402635</v>
@@ -5674,18 +5674,18 @@
         <v>669968</v>
       </c>
       <c r="G11" s="1">
-        <v>1923430</v>
+        <v>1906472</v>
       </c>
       <c r="H11" s="1">
-        <v>409022</v>
+        <v>400434</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" si="0"/>
-        <v>0.85032873795747455</v>
+        <f t="shared" si="2"/>
+        <v>0.84283177953513377</v>
       </c>
       <c r="J11" s="6">
-        <f t="shared" si="1"/>
-        <v>0.61050975568982402</v>
+        <f t="shared" si="3"/>
+        <v>0.59769123301411409</v>
       </c>
       <c r="K11" s="2">
         <v>0.3322</v>
@@ -5703,11 +5703,11 @@
         <v>387724</v>
       </c>
       <c r="P11" s="3">
-        <f>N11/E11</f>
+        <f t="shared" si="0"/>
         <v>0.9119927461909545</v>
       </c>
       <c r="Q11" s="3">
-        <f>O11/F11</f>
+        <f t="shared" si="1"/>
         <v>0.57872017768012796</v>
       </c>
       <c r="R11" s="1">
@@ -5717,23 +5717,23 @@
         <v>387724</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2931952</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" si="3"/>
-        <v>2332452</v>
+        <f t="shared" si="5"/>
+        <v>2306906</v>
       </c>
       <c r="W11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2450637</v>
       </c>
       <c r="X11" s="6">
-        <f t="shared" si="5"/>
-        <v>0.79552871261193903</v>
+        <f t="shared" si="7"/>
+        <v>0.78681574596037041</v>
       </c>
       <c r="Y11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.83583803554764879</v>
       </c>
     </row>

--- a/result/record.xlsx
+++ b/result/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Garage\Code\LC-VLSICAD\project\FPGA_r_op\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033DD586-4624-4F51-AECF-46615E62CE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DEDA2B-173D-4DCA-9BD5-3516DC4A875A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="29699" windowHeight="16094" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -274,7 +274,7 @@
                 <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
                 <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               </a:rPr>
-              <a:t>Wirelength</a:t>
+              <a:t>(a) Wirelength</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0">
@@ -1432,7 +1432,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
-              <a:t>Total</a:t>
+              <a:t>(b) Total</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
@@ -2237,7 +2237,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
-              <a:t>Top 5% avg.</a:t>
+              <a:t>(c) Top 5% avg.</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
@@ -4821,8 +4821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="25.35" customHeight="1" x14ac:dyDescent="0.3"/>
